--- a/cluster/data test/dist-change-homer-nmdar-LTD-3.xlsx
+++ b/cluster/data test/dist-change-homer-nmdar-LTD-3.xlsx
@@ -370,1108 +370,1519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA978CD-E35E-488D-8D0E-A886ADF72D61}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B137"/>
+      <selection sqref="A1:C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>39.974995945817057</v>
       </c>
       <c r="B1">
         <v>40.415391288974419</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>170.20062143750849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>65.004096687836295</v>
       </c>
       <c r="B2">
         <v>439.22306259299194</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>193.15982930403092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>658.36424619825834</v>
       </c>
       <c r="B3">
         <v>58.464588635112051</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>71.22750130438196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>671.74689211684665</v>
       </c>
       <c r="B4">
         <v>954.11938437852405</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>109.42250582464011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>779.6281781208553</v>
       </c>
       <c r="B5">
         <v>680.65558931358271</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>81.283290696876236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>253.48294509172445</v>
       </c>
       <c r="B6">
         <v>347.34907528481853</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>144.52607074639278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>98.314241205822015</v>
       </c>
       <c r="B7">
         <v>146.68673970996184</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>172.69354238086248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>373.74722979754188</v>
       </c>
       <c r="B8">
         <v>513.76781383122875</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>175.43043045983165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>746.7357738716745</v>
       </c>
       <c r="B9">
         <v>509.48174092009168</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>149.45594013293635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1029.9069439029854</v>
       </c>
       <c r="B10">
         <v>136.98594058608194</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>145.39057135426049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>456.03526063437522</v>
       </c>
       <c r="B11">
         <v>628.77532375414023</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>136.23293334906049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37.629470642312846</v>
       </c>
       <c r="B12">
         <v>108.38134564143104</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>144.20215522573884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112.51462810344496</v>
       </c>
       <c r="B13">
         <v>122.5344280251894</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>97.307482749373222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>258.68976788927637</v>
       </c>
       <c r="B14">
         <v>249.52850896107671</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>102.26667636421845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>188.59670524818074</v>
       </c>
       <c r="B15">
         <v>1079.9042923233251</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>129.1593634537092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>379.76211029058544</v>
       </c>
       <c r="B16">
         <v>225.4558878188314</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>162.87859880293047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>801.89538148358622</v>
       </c>
       <c r="B17">
         <v>301.97028904748942</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>101.63309036880409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1043.0257652820583</v>
       </c>
       <c r="B18">
         <v>1156.8678685570167</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>132.99288897141898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>698.58423119921349</v>
       </c>
       <c r="B19">
         <v>571.77467342522436</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>152.49460367784189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>124.79288473542435</v>
       </c>
       <c r="B20">
         <v>123.3404616216425</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>139.91721302356925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1178.368256104603</v>
       </c>
       <c r="B21">
         <v>1179.0949870928148</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>149.03354027203525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>955.5043291001781</v>
       </c>
       <c r="B22">
         <v>916.68265682783317</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>78.217034629337277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>59.890755437086831</v>
       </c>
       <c r="B23">
         <v>119.28646566711502</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>136.43726186265431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>367.65144855570287</v>
       </c>
       <c r="B24">
         <v>189.37107220665408</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>87.685798928972048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>291.26471200989005</v>
       </c>
       <c r="B25">
         <v>222.23812867213132</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>133.13693368844625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>203.91128675787218</v>
       </c>
       <c r="B26">
         <v>90.25419779230424</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>137.26634712077782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>221.99898566216109</v>
       </c>
       <c r="B27">
         <v>286.20626548076308</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>147.97633280377502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>366.38643863822722</v>
       </c>
       <c r="B28">
         <v>1086.7663442984046</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>195.85285749144384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>392.3783571602134</v>
       </c>
       <c r="B29">
         <v>203.72350483348725</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>15.212633496272883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>636.34465989400144</v>
       </c>
       <c r="B30">
         <v>541.28477492433797</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>113.10862004841763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>573.31713783578311</v>
       </c>
       <c r="B31">
         <v>367.88945250506714</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>199.49284773284396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>424.79035899289778</v>
       </c>
       <c r="B32">
         <v>290.55796465915279</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>139.4098987391055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>494.69187595402781</v>
       </c>
       <c r="B33">
         <v>415.58050872272275</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>211.89505041067792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>166.11763869880895</v>
       </c>
       <c r="B34">
         <v>187.44777989020309</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>105.43280432493874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>119.72577376960619</v>
       </c>
       <c r="B35">
         <v>77.862081643274223</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>183.18852779082547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>898.77469773914902</v>
       </c>
       <c r="B36">
         <v>245.25618422292328</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>151.26210515184468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1327.8964139520774</v>
       </c>
       <c r="B37">
         <v>486.31295506801814</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>94.975619711553577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>550.73552649861995</v>
       </c>
       <c r="B38">
         <v>630.67169661375328</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>182.91239555997527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>291.24341588930503</v>
       </c>
       <c r="B39">
         <v>311.8468903005691</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>168.7416198705497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>93.368064866610538</v>
       </c>
       <c r="B40">
         <v>103.2052831243174</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>112.61277673477677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>236.25457200801281</v>
       </c>
       <c r="B41">
         <v>208.75240683771861</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>78.832621210054498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>658.36424619825834</v>
       </c>
       <c r="B42">
         <v>42.247960214832624</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>928.36162209929284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>138.16238405565329</v>
       </c>
       <c r="B43">
         <v>144.06005065736105</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>57.263234651062227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>73.547385384252905</v>
       </c>
       <c r="B44">
         <v>404.55080723587491</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1495.0301446242156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>104.14468706274846</v>
       </c>
       <c r="B45">
         <v>175.20963874154754</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>152.29221291487795</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>124.04525981289167</v>
       </c>
       <c r="B46">
         <v>411.96633293655293</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>93.510496722343746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1266.3291590952201</v>
       </c>
       <c r="B47">
         <v>1345.0984462217998</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>157.76969146166718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>273.87425117744101</v>
       </c>
       <c r="B48">
         <v>151.83663345924006</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>145.61563673301919</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>159.78476286396634</v>
       </c>
       <c r="B49">
         <v>1176.9883473831792</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>167.73536408861582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192.11577824042649</v>
       </c>
       <c r="B50">
         <v>274.43296271987782</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>223.90954325362506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>103.72170493977114</v>
       </c>
       <c r="B51">
         <v>151.015047116582</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>137.88494702645079</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>818.99584458429786</v>
       </c>
       <c r="B52">
         <v>255.55784900118013</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>188.11835828265831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>259.15245613756298</v>
       </c>
       <c r="B53">
         <v>190.39688759066271</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>121.37989911383984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>58.231580678061583</v>
       </c>
       <c r="B54">
         <v>185.2017162438799</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>104.08825211664917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>224.50832779846866</v>
       </c>
       <c r="B55">
         <v>222.04217107598893</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>133.95840343967629</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>170.86263344040398</v>
       </c>
       <c r="B56">
         <v>395.50261375798192</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>158.87639455894791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>447.68428306415035</v>
       </c>
       <c r="B57">
         <v>1437.4736376237297</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>140.41496596584483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>101.69900203392743</v>
       </c>
       <c r="B58">
         <v>113.76647906009158</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>188.41966666327735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>135.80387581090741</v>
       </c>
       <c r="B59">
         <v>139.6074951011268</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>187.44696015900686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>51.869348701520444</v>
       </c>
       <c r="B60">
         <v>767.16141965294628</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>141.61709944272599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>255.34030510297058</v>
       </c>
       <c r="B61">
         <v>154.96861085610732</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>179.44409793467875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>251.12939127388316</v>
       </c>
       <c r="B62">
         <v>97.283137963380923</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>100.71895188652687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>109.10250777115569</v>
       </c>
       <c r="B63">
         <v>30.971816678135706</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>59.505228683662224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>96.675580286840372</v>
       </c>
       <c r="B64">
         <v>434.61735228918582</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>172.96968007866892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>243.07495833546275</v>
       </c>
       <c r="B65">
         <v>319.85062281848877</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>129.369255788571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>83.197493242993204</v>
       </c>
       <c r="B66">
         <v>90.182805144646224</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>155.53169087405354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>385.7371892875168</v>
       </c>
       <c r="B67">
         <v>614.36058246963375</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>782.55126300280403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1098.4954238946773</v>
       </c>
       <c r="B68">
         <v>767.68332866604351</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1404.7175280638612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>297.64417521277426</v>
       </c>
       <c r="B69">
         <v>234.6526435413119</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>117.48595541295644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>266.21752644028487</v>
       </c>
       <c r="B70">
         <v>155.56151130611627</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>258.57031391658967</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>465.2751401202201</v>
       </c>
       <c r="B71">
         <v>1114.3865861592183</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>224.69501427759377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>181.72580161199622</v>
       </c>
       <c r="B72">
         <v>81.138815147758805</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>89.665551352273582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>560.13887480185792</v>
       </c>
       <c r="B73">
         <v>495.89543211686782</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>200.36865955279902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>256.83866830895187</v>
       </c>
       <c r="B74">
         <v>210.08186830783214</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>72.942087709105408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>279.10007391637771</v>
       </c>
       <c r="B75">
         <v>431.19010174256471</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>209.75536618532274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>870.51439369278569</v>
       </c>
       <c r="B76">
         <v>248.38202021692985</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>160.76235737343723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>667.31959406427995</v>
       </c>
       <c r="B77">
         <v>428.98459546057961</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>35.313620697532521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>148.24328481672339</v>
       </c>
       <c r="B78">
         <v>161.14001783293375</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>111.87662093332921</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>610.83611731504959</v>
       </c>
       <c r="B79">
         <v>422.99697446731238</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>187.16315890482224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>95.377956845450043</v>
       </c>
       <c r="B80">
         <v>72.011923972751887</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>158.65966473584186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>823.46506680565938</v>
       </c>
       <c r="B81">
         <v>1383.1103487319676</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>248.11082203137843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>160.96265267755169</v>
       </c>
       <c r="B82">
         <v>86.664026954207444</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>62.45631165787777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>97.047073623805872</v>
       </c>
       <c r="B83">
         <v>46.34843860887122</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>258.10480416270349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>203.0832140390215</v>
       </c>
       <c r="B84">
         <v>49.367337788031584</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>752.88108451993821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>126.30652531708112</v>
       </c>
       <c r="B85">
         <v>103.93561142369649</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>54.490174300483616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>237.6024842499001</v>
       </c>
       <c r="B86">
         <v>256.11418943966885</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>93.021437661458833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>111.97198746214063</v>
       </c>
       <c r="B87">
         <v>219.0971429363328</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>151.55229688490502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>843.14782056929084</v>
       </c>
       <c r="B88">
         <v>658.71287886840821</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>155.59600376960816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>147.36052584987436</v>
       </c>
       <c r="B89">
         <v>179.68938399194147</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1611.141743381017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>798.8759452697451</v>
       </c>
       <c r="B90">
         <v>684.99464415300667</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>71.584049992092702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>198.0323031472133</v>
       </c>
       <c r="B91">
         <v>375.09219908528752</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>144.51333294273914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>126.41749820849178</v>
       </c>
       <c r="B92">
         <v>195.82702799791181</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>79.13923284929885</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8374.3013187526522</v>
       </c>
       <c r="B93">
         <v>5949.7306497443551</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>6955.3553034093156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>77.764102907833433</v>
       </c>
       <c r="B94">
         <v>113.39358598731832</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>249.2463821852898</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>158.27382778784491</v>
       </c>
       <c r="B95">
         <v>59.713259492969968</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>77.737406316224266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>141.88097187881741</v>
       </c>
       <c r="B96">
         <v>145.21558088759176</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>138.5722084130245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1024.7346192044827</v>
       </c>
       <c r="B97">
         <v>304.0838792606138</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>228.6283361846107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>519.11781821599607</v>
       </c>
       <c r="B98">
         <v>907.97224689974382</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>90.838710996399598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>94.285223056302002</v>
       </c>
       <c r="B99">
         <v>105.12503430394486</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>279.33274580403247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>273.90902159135015</v>
       </c>
       <c r="B100">
         <v>689.37196272525694</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>492.96461811373609</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>96.214308341663127</v>
       </c>
       <c r="B101">
         <v>151.695852913979</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>199.26772478716288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>134.14267572427215</v>
       </c>
       <c r="B102">
         <v>82.035948667714649</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>162.4697640951243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1185.2811382654866</v>
       </c>
       <c r="B103">
         <v>96.021553043430728</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>271.35909367443872</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>249.97226137252147</v>
       </c>
       <c r="B104">
         <v>535.26934414545326</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>152.28621200840578</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>668.69528651835276</v>
       </c>
       <c r="B105">
         <v>754.6204493889519</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>210.54207989367561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>68.645907273550293</v>
       </c>
       <c r="B106">
         <v>176.30826798961331</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>132.86229042859313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>66.159972044248093</v>
       </c>
       <c r="B107">
         <v>264.45765610962638</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>57.920912405213485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>667.31959406427995</v>
       </c>
       <c r="B108">
         <v>497.47625735180793</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>1309.9244881410887</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>134.23008154620265</v>
       </c>
       <c r="B109">
         <v>239.29769356000938</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>162.05314782302636</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>170.86263344040398</v>
       </c>
       <c r="B110">
         <v>241.61962521250879</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>2007.2610875488299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>761.43900605089993</v>
       </c>
       <c r="B111">
         <v>753.86882061184895</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>222.81440955586791</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>779.6281781208553</v>
       </c>
       <c r="B112">
         <v>938.78315167309142</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>1389.1185644232487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>134.23008154620265</v>
       </c>
       <c r="B113">
         <v>1134.1704011389663</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>1773.2545476904863</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>58.773780524100481</v>
       </c>
       <c r="B114">
         <v>104.41498476457438</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>135.52135511911032</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>255.34030510297058</v>
       </c>
       <c r="B115">
         <v>183.85854318969854</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>1550.5954070004304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>662.2838257003599</v>
       </c>
       <c r="B116">
         <v>481.50950183903319</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>143.1537641001475</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>67.743455779317983</v>
       </c>
       <c r="B117">
         <v>78.047325641164065</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>129.84309039044851</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>147.36052584987436</v>
       </c>
       <c r="B118">
         <v>162.86349675495586</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>68.048764071362328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>660.6147205863773</v>
       </c>
       <c r="B119">
         <v>685.22287272650703</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>143.74915815454926</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>50.237435985364314</v>
       </c>
       <c r="B120">
         <v>63.660833643265754</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>90.573578145448252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>170.86263344040398</v>
       </c>
       <c r="B121">
         <v>68.981926783506665</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>4870.8849264705132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1098.4954238946773</v>
       </c>
       <c r="B122">
         <v>197.63098705103678</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>125.90059125572206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>230.67880961204554</v>
       </c>
       <c r="B123">
         <v>216.017236673849</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>93.893188304871032</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>295.72106987899895</v>
       </c>
       <c r="B124">
         <v>208.27239143137513</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>287.0803159730836</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>665.11263691272802</v>
       </c>
       <c r="B125">
         <v>709.91836428113709</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>188.70094671030839</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>627.98008634182065</v>
       </c>
       <c r="B126">
         <v>558.77967014601381</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>1108.3774275910901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>379.02709797636373</v>
       </c>
       <c r="B127">
         <v>354.47663281612967</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>229.72084318457385</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>280.65535901905457</v>
       </c>
       <c r="B128">
         <v>231.9366237989143</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>275.90592588708444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>137.00198115978833</v>
       </c>
       <c r="B129">
         <v>779.24296193425232</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>92.086279387425293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>556.64572167666813</v>
       </c>
       <c r="B130">
         <v>91.371623584145041</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>52.0594885578519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>251.96044134082345</v>
       </c>
       <c r="B131">
         <v>189.20753347409928</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>145.64347196056914</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>144.05859814373872</v>
       </c>
       <c r="B132">
         <v>213.00429707664711</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>96.113972565436029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>91.316025714250657</v>
       </c>
       <c r="B133">
         <v>56.10245263144094</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>164.02713797990219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>198.0323031472133</v>
       </c>
       <c r="B134">
         <v>119.10439224113173</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>1771.6191018428085</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>55.23245012064325</v>
       </c>
       <c r="B135">
         <v>70.839468193892998</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>210.5143711867787</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>172.78028070736812</v>
       </c>
       <c r="B136">
         <v>131.05144592979903</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>99.565976800479163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>79.345141140152023</v>
       </c>
       <c r="B137">
         <v>138.65222688995698</v>
+      </c>
+      <c r="C137">
+        <v>146.93898662619225</v>
       </c>
     </row>
   </sheetData>
